--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:35:34+00:00</t>
+    <t>2023-02-18T09:40:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:40:56+00:00</t>
+    <t>2023-02-18T09:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:46:20+00:00</t>
+    <t>2023-02-18T09:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:58:57+00:00</t>
+    <t>2023-02-18T10:08:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:08:04+00:00</t>
+    <t>2023-02-18T10:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:08:52+00:00</t>
+    <t>2023-02-18T10:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:13:11+00:00</t>
+    <t>2023-02-18T10:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:54:26+00:00</t>
+    <t>2023-02-18T11:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:03:25+00:00</t>
+    <t>2023-02-18T11:04:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:04:01+00:00</t>
+    <t>2023-02-18T11:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:59+00:00</t>
+    <t>2023-02-18T11:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-vl-suppression.xlsx
+++ b/CodeSystem-cs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:31+00:00</t>
+    <t>2023-02-18T11:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
